--- a/builds/production/data/maindata.xlsx
+++ b/builds/production/data/maindata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="26620" windowHeight="19440" activeTab="2"/>
+    <workbookView xWindow="6980" yWindow="0" windowWidth="26620" windowHeight="19500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="senate" sheetId="1" r:id="rId1"/>
     <sheet name="house" sheetId="2" r:id="rId2"/>
     <sheet name="source" sheetId="3" r:id="rId3"/>
+    <sheet name="layout" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="798">
   <si>
     <t>Senator Name</t>
   </si>
@@ -2331,13 +2332,97 @@
   </si>
   <si>
     <t>Source: Minnesota Campaign Finance Disclosure Board</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Minnesota Campaign Finance Disclosure Board</t>
+  </si>
+  <si>
+    <t>Minnesota Senate expendiures per district</t>
+  </si>
+  <si>
+    <t>senate</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>Minnesota House expendiures per district</t>
+  </si>
+  <si>
+    <t>Senator full name</t>
+  </si>
+  <si>
+    <t>Data year</t>
+  </si>
+  <si>
+    <t>Amount spent per diem</t>
+  </si>
+  <si>
+    <t>Amount of spent on communications</t>
+  </si>
+  <si>
+    <t>Amount of spent on lodging</t>
+  </si>
+  <si>
+    <t>Amount of spent on mileage</t>
+  </si>
+  <si>
+    <t>Amount of spent on other travel</t>
+  </si>
+  <si>
+    <t>Amount of spent on other expenses</t>
+  </si>
+  <si>
+    <t>Total spent</t>
+  </si>
+  <si>
+    <t>District name</t>
+  </si>
+  <si>
+    <t>Senator last name</t>
+  </si>
+  <si>
+    <t>Senator first and middle name</t>
+  </si>
+  <si>
+    <t>Senator nickname</t>
+  </si>
+  <si>
+    <t>Senator suffix</t>
+  </si>
+  <si>
+    <t>Representative name</t>
+  </si>
+  <si>
+    <t>Amount spent on travel within their district</t>
+  </si>
+  <si>
+    <t>Representative last name</t>
+  </si>
+  <si>
+    <t>Representative first and middle name</t>
+  </si>
+  <si>
+    <t>Representative nickname</t>
+  </si>
+  <si>
+    <t>Representative suffix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2370,6 +2455,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2388,10 +2492,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2405,8 +2543,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="35">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2709,7 +2882,7 @@
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -5354,6 +5527,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5367,7 +5541,7 @@
   <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -10564,6 +10738,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10574,26 +10749,321 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="13" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>775</v>
+      </c>
+      <c r="B7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C7" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>776</v>
+      </c>
+      <c r="B8" t="s">
+        <v>777</v>
+      </c>
+      <c r="C8" t="s">
+        <v>773</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="13" customFormat="1">
+      <c r="A2" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B29" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" t="s">
+        <v>797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
